--- a/teams-and-rosters/CS320-Sp24-101-roster.xlsx
+++ b/teams-and-rosters/CS320-Sp24-101-roster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\donha\cs320-spring2024\teams-and-rosters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBA959F-6A32-4D78-833F-AFD98CB0DFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27517BA8-D950-4B1A-AB04-4AB3CD4ECA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="667" windowWidth="26355" windowHeight="14858" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1289,6 +1289,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="155" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/teams-and-rosters/CS320-Sp24-101-roster.xlsx
+++ b/teams-and-rosters/CS320-Sp24-101-roster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\donha\cs320-spring2024\teams-and-rosters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27517BA8-D950-4B1A-AB04-4AB3CD4ECA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4C8D29-A2D6-426D-A3AF-087EF9B68ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="667" windowWidth="26355" windowHeight="14858" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="405" yWindow="915" windowWidth="21360" windowHeight="14572" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cs320-101-sp24-roster" sheetId="1" r:id="rId1"/>
@@ -77,9 +77,6 @@
     <t>De Alva</t>
   </si>
   <si>
-    <t>Karen</t>
-  </si>
-  <si>
     <t>Huber</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>CS320 Section 101: M-W-F  10:00a to 10:50a</t>
+  </si>
+  <si>
+    <t>Ren</t>
   </si>
 </sst>
 </file>
@@ -786,9 +786,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -826,7 +826,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -932,7 +932,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1074,7 +1074,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1085,7 +1085,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1098,7 +1098,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1106,10 +1106,10 @@
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>4</v>
@@ -1142,7 +1142,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>7</v>
@@ -1157,7 +1157,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
@@ -1172,7 +1172,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
@@ -1184,10 +1184,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>10</v>
@@ -1196,13 +1196,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>4</v>
@@ -1211,13 +1211,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>7</v>
@@ -1226,13 +1226,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>4</v>
@@ -1241,13 +1241,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>7</v>
@@ -1256,13 +1256,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="C12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>7</v>
@@ -1271,13 +1271,13 @@
     </row>
     <row r="13" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="C13" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>10</v>
